--- a/tut05/output/0401EE16.xlsx
+++ b/tut05/output/0401EE16.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.040816326530612</v>
+        <v>6.04</v>
       </c>
       <c r="C6" t="n">
-        <v>4.863636363636363</v>
+        <v>4.86</v>
       </c>
       <c r="D6" t="n">
-        <v>6.847826086956522</v>
+        <v>6.85</v>
       </c>
       <c r="E6" t="n">
-        <v>6.673913043478261</v>
+        <v>6.67</v>
       </c>
       <c r="F6" t="n">
-        <v>7.384615384615385</v>
+        <v>7.38</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>7.441860465116279</v>
+        <v>7.44</v>
       </c>
       <c r="I6" t="n">
-        <v>8.210526315789474</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.040816326530612</v>
+        <v>6.04</v>
       </c>
       <c r="C8" t="n">
-        <v>5.483870967741935</v>
+        <v>5.48</v>
       </c>
       <c r="D8" t="n">
-        <v>5.935251798561151</v>
+        <v>5.94</v>
       </c>
       <c r="E8" t="n">
-        <v>6.118918918918919</v>
+        <v>6.12</v>
       </c>
       <c r="F8" t="n">
-        <v>6.339285714285714</v>
+        <v>6.34</v>
       </c>
       <c r="G8" t="n">
-        <v>6.439393939393939</v>
+        <v>6.44</v>
       </c>
       <c r="H8" t="n">
-        <v>6.579804560260587</v>
+        <v>6.58</v>
       </c>
       <c r="I8" t="n">
-        <v>6.759420289855073</v>
+        <v>6.76</v>
       </c>
     </row>
   </sheetData>
